--- a/szxc_data_cleaning/tests/import/test.xlsx
+++ b/szxc_data_cleaning/tests/import/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F36BD-3874-4EDA-BEC5-C9C89AE3CF4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>组织名称</t>
+  </si>
+  <si>
+    <t>组织类型</t>
+  </si>
+  <si>
+    <t>排序序号</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>地址信息</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>必填，存在字典项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构部门</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +116,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +409,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4">
+        <v>11111111111</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>11111111111</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{117ACEF3-F2EB-455F-A5FF-FFD8B31B8158}">
+          <x14:formula1>
+            <xm:f>'C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\[1组织信息_导入模板.xlsx]字典项'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>